--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H2">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I2">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J2">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>696.9554412660311</v>
+        <v>430.3185552704311</v>
       </c>
       <c r="R2">
-        <v>6272.598971394281</v>
+        <v>3872.86699743388</v>
       </c>
       <c r="S2">
-        <v>0.3680450319236578</v>
+        <v>0.2105651524977937</v>
       </c>
       <c r="T2">
-        <v>0.4197582257144118</v>
+        <v>0.2652170704632609</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H3">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I3">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J3">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
-        <v>113.840063604848</v>
+        <v>103.321054341448</v>
       </c>
       <c r="R3">
-        <v>1024.560572443632</v>
+        <v>929.8894890730321</v>
       </c>
       <c r="S3">
-        <v>0.0601161385117083</v>
+        <v>0.05055746097206409</v>
       </c>
       <c r="T3">
-        <v>0.06856292423398545</v>
+        <v>0.06367958577197137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H4">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I4">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J4">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>150.91247268874</v>
+        <v>169.654811720756</v>
       </c>
       <c r="R4">
-        <v>1358.21225419866</v>
+        <v>1526.893305486804</v>
       </c>
       <c r="S4">
-        <v>0.07969316621950955</v>
+        <v>0.08301615364811614</v>
       </c>
       <c r="T4">
-        <v>0.0908906768256658</v>
+        <v>0.1045628909176318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H5">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I5">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J5">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>289.0236485873708</v>
+        <v>266.0097371132881</v>
       </c>
       <c r="R5">
-        <v>1734.141891524225</v>
+        <v>1596.058422679728</v>
       </c>
       <c r="S5">
-        <v>0.1526262823600333</v>
+        <v>0.1301649212545735</v>
       </c>
       <c r="T5">
-        <v>0.1160476425868876</v>
+        <v>0.1092993741927636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H6">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I6">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J6">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>176.3980843410147</v>
+        <v>153.8092335876867</v>
       </c>
       <c r="R6">
-        <v>1587.582759069132</v>
+        <v>1384.28310228918</v>
       </c>
       <c r="S6">
-        <v>0.09315149109766349</v>
+        <v>0.0752625336028252</v>
       </c>
       <c r="T6">
-        <v>0.1062400011798492</v>
+        <v>0.09479682863475326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.144039</v>
       </c>
       <c r="I7">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J7">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N7">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O7">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P7">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q7">
-        <v>40.03297925637445</v>
+        <v>27.23386448533556</v>
       </c>
       <c r="R7">
-        <v>360.29681330737</v>
+        <v>245.10478036802</v>
       </c>
       <c r="S7">
-        <v>0.02114043202194823</v>
+        <v>0.01332618070548948</v>
       </c>
       <c r="T7">
-        <v>0.02411082738975756</v>
+        <v>0.0167849739866666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.144039</v>
       </c>
       <c r="I8">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J8">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P8">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q8">
         <v>6.538950175292</v>
@@ -948,10 +948,10 @@
         <v>58.850551577628</v>
       </c>
       <c r="S8">
-        <v>0.003453058809098141</v>
+        <v>0.003199664583300494</v>
       </c>
       <c r="T8">
-        <v>0.003938240468615292</v>
+        <v>0.004030133463118496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.144039</v>
       </c>
       <c r="I9">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J9">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N9">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O9">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P9">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q9">
-        <v>8.668381837585001</v>
+        <v>10.737060010774</v>
       </c>
       <c r="R9">
-        <v>78.01543653826501</v>
+        <v>96.63354009696602</v>
       </c>
       <c r="S9">
-        <v>0.004577559311891006</v>
+        <v>0.005253900048827249</v>
       </c>
       <c r="T9">
-        <v>0.005220742051098835</v>
+        <v>0.006617543135354968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.144039</v>
       </c>
       <c r="I10">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J10">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N10">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O10">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P10">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q10">
-        <v>16.60145978268267</v>
+        <v>16.835140022652</v>
       </c>
       <c r="R10">
-        <v>99.60875869609603</v>
+        <v>101.010840135912</v>
       </c>
       <c r="S10">
-        <v>0.008766822717672871</v>
+        <v>0.008237836325611524</v>
       </c>
       <c r="T10">
-        <v>0.006665753064490002</v>
+        <v>0.006917304189281478</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.144039</v>
       </c>
       <c r="I11">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J11">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N11">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O11">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P11">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q11">
-        <v>10.13227020433367</v>
+        <v>9.734230078663336</v>
       </c>
       <c r="R11">
-        <v>91.19043183900301</v>
+        <v>87.60807070797003</v>
       </c>
       <c r="S11">
-        <v>0.005350602764559928</v>
+        <v>0.004763191398228783</v>
       </c>
       <c r="T11">
-        <v>0.00610240413031896</v>
+        <v>0.005999471677571522</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H12">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I12">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J12">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N12">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O12">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P12">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q12">
-        <v>165.692600219595</v>
+        <v>324.19336127357</v>
       </c>
       <c r="R12">
-        <v>994.15560131757</v>
+        <v>1945.16016764142</v>
       </c>
       <c r="S12">
-        <v>0.08749818815756609</v>
+        <v>0.1586355589812798</v>
       </c>
       <c r="T12">
-        <v>0.06652824342767577</v>
+        <v>0.133206144591463</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H13">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I13">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J13">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P13">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q13">
-        <v>27.064077602418</v>
+        <v>77.840008261398</v>
       </c>
       <c r="R13">
-        <v>162.384465614508</v>
+        <v>467.040049568388</v>
       </c>
       <c r="S13">
-        <v>0.01429187393540156</v>
+        <v>0.03808897619971405</v>
       </c>
       <c r="T13">
-        <v>0.01086666236448041</v>
+        <v>0.03198328107255347</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H14">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I14">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J14">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N14">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O14">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P14">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q14">
-        <v>35.8775877550275</v>
+        <v>127.814529479031</v>
       </c>
       <c r="R14">
-        <v>215.265526530165</v>
+        <v>766.887176874186</v>
       </c>
       <c r="S14">
-        <v>0.01894607194206937</v>
+        <v>0.06254270368209526</v>
       </c>
       <c r="T14">
-        <v>0.01440542841744839</v>
+        <v>0.05251705533941064</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H15">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I15">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J15">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N15">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O15">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P15">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q15">
-        <v>68.71182434906402</v>
+        <v>200.406396029238</v>
       </c>
       <c r="R15">
-        <v>274.8472973962561</v>
+        <v>801.625584116952</v>
       </c>
       <c r="S15">
-        <v>0.03628502496536372</v>
+        <v>0.09806363872668766</v>
       </c>
       <c r="T15">
-        <v>0.01839260160319308</v>
+        <v>0.05489596961857145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H16">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I16">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J16">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N16">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O16">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P16">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q16">
-        <v>41.9364790597305</v>
+        <v>115.876788999645</v>
       </c>
       <c r="R16">
-        <v>251.618874358383</v>
+        <v>695.2607339978701</v>
       </c>
       <c r="S16">
-        <v>0.02214562346520642</v>
+        <v>0.05670128198708772</v>
       </c>
       <c r="T16">
-        <v>0.01683817070700683</v>
+        <v>0.04761201848688058</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H17">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I17">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J17">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N17">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O17">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P17">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q17">
-        <v>22.11428974699222</v>
+        <v>1.269146132097778</v>
       </c>
       <c r="R17">
-        <v>199.02860772293</v>
+        <v>11.42231518888</v>
       </c>
       <c r="S17">
-        <v>0.01167801267340139</v>
+        <v>0.0006210235314608022</v>
       </c>
       <c r="T17">
-        <v>0.01331886441731449</v>
+        <v>0.000782209400506138</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H18">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I18">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J18">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P18">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q18">
-        <v>3.612127838188</v>
+        <v>0.304726614448</v>
       </c>
       <c r="R18">
-        <v>32.50915054369199</v>
+        <v>2.742539530032</v>
       </c>
       <c r="S18">
-        <v>0.0019074758970291</v>
+        <v>0.0001491100145589946</v>
       </c>
       <c r="T18">
-        <v>0.002175491118423854</v>
+        <v>0.0001878113295051758</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H19">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I19">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J19">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N19">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O19">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P19">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q19">
-        <v>4.788429718564999</v>
+        <v>0.500365939256</v>
       </c>
       <c r="R19">
-        <v>43.09586746708499</v>
+        <v>4.503293453304</v>
       </c>
       <c r="S19">
-        <v>0.002528651997367428</v>
+        <v>0.0002448410114175271</v>
       </c>
       <c r="T19">
-        <v>0.002883947299373741</v>
+        <v>0.0003083891850438014</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H20">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I20">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J20">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N20">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O20">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P20">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q20">
-        <v>9.170676244357335</v>
+        <v>0.784547226288</v>
       </c>
       <c r="R20">
-        <v>55.024057466144</v>
+        <v>4.707283357728</v>
       </c>
       <c r="S20">
-        <v>0.004842808637787343</v>
+        <v>0.0003838977062962945</v>
       </c>
       <c r="T20">
-        <v>0.003682173982256426</v>
+        <v>0.0003223585790073073</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3947903333333333</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H21">
-        <v>1.184371</v>
+        <v>0.099916</v>
       </c>
       <c r="I21">
-        <v>0.02391263179665035</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J21">
-        <v>0.02543145583511492</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N21">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O21">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P21">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q21">
-        <v>5.597084285396333</v>
+        <v>0.4536322951866667</v>
       </c>
       <c r="R21">
-        <v>50.37375856856699</v>
+        <v>4.082690656680001</v>
       </c>
       <c r="S21">
-        <v>0.002955682591065091</v>
+        <v>0.0002219731225716636</v>
       </c>
       <c r="T21">
-        <v>0.00337097901774641</v>
+        <v>0.0002795859646845212</v>
       </c>
     </row>
   </sheetData>
